--- a/data/try2/with-media/comparison_water_crisis.xlsx
+++ b/data/try2/with-media/comparison_water_crisis.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="14" documentId="8_{C44C09AD-AFCD-4968-938F-6350434C5172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F2F523-33B7-422E-B118-E8B38322B437}"/>
   <bookViews>
-    <workbookView xWindow="1510" yWindow="1040" windowWidth="17690" windowHeight="9760" xr2:uid="{22347AF3-EB9C-48EA-B4F7-45446E8A027E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{22347AF3-EB9C-48EA-B4F7-45446E8A027E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,9 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A535AA-4045-442D-AF0E-DD64C42939ED}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
